--- a/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SearchKYC</t>
   </si>
@@ -22,7 +22,13 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Tolak 1</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Belum verifikasi email</t>
+  </si>
+  <si>
+    <t>sudah verifikasi</t>
   </si>
 </sst>
 </file>
@@ -30,12 +36,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,39 +57,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,9 +81,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,11 +95,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,17 +133,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,46 +171,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,169 +215,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,41 +397,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,17 +425,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -487,6 +445,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -495,151 +468,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,32 +963,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="12.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="26.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>10474</v>
+        <v>10001545</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>10001547</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
@@ -28,7 +28,7 @@
     <t>Belum verifikasi email</t>
   </si>
   <si>
-    <t>sudah verifikasi</t>
+    <t>Sudah</t>
   </si>
 </sst>
 </file>
@@ -36,12 +36,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,27 +50,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10.5"/>
+      <color rgb="FF5F6368"/>
+      <name val="Roboto"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -81,6 +64,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,23 +108,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,8 +131,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,7 +148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,36 +156,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,16 +186,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,61 +209,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,109 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,39 +400,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,6 +414,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,13 +451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,10 +480,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -515,135 +521,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,7 +973,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -988,16 +995,16 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>10001545</v>
+      <c r="A2" s="1">
+        <v>10001862</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>10001547</v>
+      <c r="A3" s="1">
+        <v>10001863</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18650" windowHeight="7110"/>
+    <workbookView windowWidth="18320" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>SearchKYC</t>
   </si>
   <si>
+    <t>Start_Filterdate</t>
+  </si>
+  <si>
+    <t>End_FilterDate</t>
+  </si>
+  <si>
+    <t>Filter_Email</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Belum verifikasi email</t>
-  </si>
-  <si>
-    <t>Sudah</t>
+    <t>District</t>
+  </si>
+  <si>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Birthplace</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>BloodType</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Neighbourhood</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>KTP_Religion</t>
+  </si>
+  <si>
+    <t>Marital_Status</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>KtpCitizenship</t>
+  </si>
+  <si>
+    <t>VerifyMotherName</t>
+  </si>
+  <si>
+    <t>VerifyBirthdate2</t>
+  </si>
+  <si>
+    <t>KTPValidPeriod</t>
+  </si>
+  <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
+  </si>
+  <si>
+    <t>Semua</t>
+  </si>
+  <si>
+    <t>Test Regression</t>
+  </si>
+  <si>
+    <t>PANCORAN</t>
+  </si>
+  <si>
+    <t>3171014503710005</t>
+  </si>
+  <si>
+    <t>DEDEH HARYUNI</t>
+  </si>
+  <si>
+    <t>JAKARTA</t>
+  </si>
+  <si>
+    <t>5/03/1971</t>
+  </si>
+  <si>
+    <t>PEREMPUAN</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Apartemen Kalibata City Tower Jasmine lantai 10 , No.14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>KALIBATA</t>
+  </si>
+  <si>
+    <t>ISLAM</t>
+  </si>
+  <si>
+    <t>CERAI HIDUP</t>
+  </si>
+  <si>
+    <t>PENSIUNAN</t>
+  </si>
+  <si>
+    <t>WNI</t>
+  </si>
+  <si>
+    <t>mak</t>
+  </si>
+  <si>
+    <t>05 March 1971</t>
+  </si>
+  <si>
+    <t>5/03/2031</t>
   </si>
 </sst>
 </file>
@@ -36,12 +156,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +176,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -65,42 +212,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,32 +251,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,8 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,9 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,25 +304,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,91 +335,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,91 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,17 +529,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,7 +568,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,59 +612,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,136 +647,143 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,45 +1103,183 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="12.5454545454545" customWidth="1"/>
-    <col min="3" max="3" width="26.0909090909091" customWidth="1"/>
+    <col min="1" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.0909090909091" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.0909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.9090909090909" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8181818181818" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7272727272727" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.0909090909091" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5454545454545" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6363636363636" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.1818181818182" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.0909090909091" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="12.6363636363636" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7272727272727" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5454545454545" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.4545454545455" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5454545454545" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>10001862</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+    <row r="2" ht="43.5" spans="1:23">
+      <c r="A2" s="2">
+        <v>10002694</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>10001863</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18320" windowHeight="6840"/>
+    <workbookView windowWidth="17930" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>SearchKYC</t>
   </si>
@@ -85,10 +85,19 @@
     <t>KTPValidPeriod</t>
   </si>
   <si>
-    <t>11/11/2020</t>
-  </si>
-  <si>
-    <t>12/11/2020</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>namebefore</t>
+  </si>
+  <si>
+    <t>10003024</t>
+  </si>
+  <si>
+    <t>20/11/2020</t>
+  </si>
+  <si>
+    <t>05/01/2021</t>
   </si>
   <si>
     <t>Semua</t>
@@ -100,33 +109,33 @@
     <t>PANCORAN</t>
   </si>
   <si>
-    <t>3171014503710005</t>
-  </si>
-  <si>
-    <t>DEDEH HARYUNI</t>
+    <t>3171012807800005</t>
+  </si>
+  <si>
+    <t>Julius Setiawinata</t>
   </si>
   <si>
     <t>JAKARTA</t>
   </si>
   <si>
-    <t>5/03/1971</t>
-  </si>
-  <si>
-    <t>PEREMPUAN</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>28/07/1980</t>
+  </si>
+  <si>
+    <t>LAKI-LAKI</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Apartemen Kalibata City Tower Jasmine lantai 10 , No.14</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>KALIBATA</t>
   </si>
   <si>
@@ -142,13 +151,19 @@
     <t>WNI</t>
   </si>
   <si>
-    <t>mak</t>
-  </si>
-  <si>
-    <t>05 March 1971</t>
+    <t>Tri Supraptiningtyas</t>
+  </si>
+  <si>
+    <t>28 July 1980</t>
   </si>
   <si>
     <t>5/03/2031</t>
+  </si>
+  <si>
+    <t>Without KYC Video</t>
+  </si>
+  <si>
+    <t>RUSBIYANTO</t>
   </si>
 </sst>
 </file>
@@ -158,8 +173,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -182,6 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -189,6 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -196,10 +227,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,50 +259,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,9 +289,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,48 +318,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -335,6 +350,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,175 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,9 +546,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,11 +587,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,22 +598,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,23 +628,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,130 +662,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -793,12 +808,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1103,13 +1118,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0909090909091" style="1" customWidth="1"/>
@@ -1117,7 +1132,7 @@
     <col min="5" max="5" width="15.9090909090909" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.8181818181818" style="1" customWidth="1"/>
     <col min="7" max="7" width="24.7272727272727" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.0909090909091" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.2727272727273" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.5454545454545" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.9090909090909" style="1" customWidth="1"/>
@@ -1130,12 +1145,14 @@
     <col min="19" max="19" width="10.7272727272727" style="1" customWidth="1"/>
     <col min="20" max="20" width="13.5454545454545" style="1" customWidth="1"/>
     <col min="21" max="21" width="16.4545454545455" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1818181818182" style="1" customWidth="1"/>
     <col min="23" max="23" width="10.5454545454545" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="24" max="24" width="18.0909090909091" style="1" customWidth="1"/>
+    <col min="25" max="25" width="27.9090909090909" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,81 +1222,89 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" ht="43.5" spans="1:23">
-      <c r="A2" s="2">
-        <v>10002694</v>
+    <row r="2" ht="43.5" spans="1:25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17930" windowHeight="6920"/>
+    <workbookView windowWidth="18530" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>SearchKYC</t>
   </si>
@@ -91,13 +91,13 @@
     <t>namebefore</t>
   </si>
   <si>
-    <t>10003024</t>
-  </si>
-  <si>
-    <t>20/11/2020</t>
-  </si>
-  <si>
-    <t>05/01/2021</t>
+    <t>10003149</t>
+  </si>
+  <si>
+    <t>20/01/2021</t>
+  </si>
+  <si>
+    <t>02/02/2021</t>
   </si>
   <si>
     <t>Semua</t>
@@ -109,31 +109,28 @@
     <t>PANCORAN</t>
   </si>
   <si>
-    <t>3171012807800005</t>
-  </si>
-  <si>
-    <t>Julius Setiawinata</t>
-  </si>
-  <si>
-    <t>JAKARTA</t>
-  </si>
-  <si>
-    <t>28/07/1980</t>
+    <t>3171013108850006</t>
+  </si>
+  <si>
+    <t>Deyna Ferrera Corputty</t>
+  </si>
+  <si>
+    <t>SURABAYA</t>
+  </si>
+  <si>
+    <t>31/08/1985</t>
   </si>
   <si>
     <t>LAKI-LAKI</t>
   </si>
   <si>
-    <t>A</t>
+    <t>B</t>
   </si>
   <si>
     <t>Apartemen Kalibata City Tower Jasmine lantai 10 , No.14</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>-</t>
   </si>
   <si>
     <t>KALIBATA</t>
@@ -151,10 +148,10 @@
     <t>WNI</t>
   </si>
   <si>
-    <t>Tri Supraptiningtyas</t>
-  </si>
-  <si>
-    <t>28 July 1980</t>
+    <t>ara</t>
+  </si>
+  <si>
+    <t>31 August 1985</t>
   </si>
   <si>
     <t>5/03/2031</t>
@@ -163,7 +160,7 @@
     <t>Without KYC Video</t>
   </si>
   <si>
-    <t>RUSBIYANTO</t>
+    <t>M Habil Ikhwan</t>
   </si>
 </sst>
 </file>
@@ -171,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -197,57 +194,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,7 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,30 +300,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -305,21 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,15 +332,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,49 +347,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,133 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,11 +543,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,39 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -614,15 +600,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,18 +618,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,130 +659,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,8 +1117,8 @@
   <sheetPr/>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1273,37 +1270,37 @@
         <v>38</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070"/>
+    <workbookView windowWidth="22368" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,10 +168,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -196,6 +196,98 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -211,45 +303,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,77 +331,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,67 +347,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,115 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,18 +543,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,6 +578,33 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,21 +625,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -618,171 +638,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1117,35 +1117,35 @@
   <sheetPr/>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0909090909091" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.0909090909091" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9090909090909" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7272727272727" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.2727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.0925925925926" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.0925925925926" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.9074074074074" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8148148148148" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7314814814815" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.2685185185185" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5454545454545" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.9090909090909" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.1818181818182" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.0909090909091" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5462962962963" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.9074074074074" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6388888888889" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.1851851851852" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.0925925925926" style="1" customWidth="1"/>
     <col min="15" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="12.6363636363636" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.9090909090909" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7272727272727" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5454545454545" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.4545454545455" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.1818181818182" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5454545454545" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.0909090909091" style="1" customWidth="1"/>
-    <col min="25" max="25" width="27.9090909090909" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6388888888889" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.9074074074074" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7314814814815" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5462962962963" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.4537037037037" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1851851851852" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.4259259259259" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.0925925925926" style="1" customWidth="1"/>
+    <col min="25" max="25" width="27.9074074074074" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1226,7 +1226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="43.5" spans="1:25">
+    <row r="2" ht="28.8" spans="1:25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>SearchKYC</t>
   </si>
   <si>
+    <t>requestIdName</t>
+  </si>
+  <si>
     <t>Start_Filterdate</t>
   </si>
   <si>
@@ -91,16 +94,16 @@
     <t>namebefore</t>
   </si>
   <si>
-    <t>10003149</t>
-  </si>
-  <si>
-    <t>20/01/2021</t>
-  </si>
-  <si>
-    <t>02/02/2021</t>
-  </si>
-  <si>
-    <t>Semua</t>
+    <t>RAISA</t>
+  </si>
+  <si>
+    <t>04/05/2021</t>
+  </si>
+  <si>
+    <t>30/06/2021</t>
+  </si>
+  <si>
+    <t>Terverifikasi</t>
   </si>
   <si>
     <t>Test Regression</t>
@@ -109,19 +112,19 @@
     <t>PANCORAN</t>
   </si>
   <si>
-    <t>3171013108850006</t>
-  </si>
-  <si>
-    <t>Deyna Ferrera Corputty</t>
+    <t>3171015504961001</t>
+  </si>
+  <si>
+    <t>TESTING STAGING</t>
   </si>
   <si>
     <t>SURABAYA</t>
   </si>
   <si>
-    <t>31/08/1985</t>
-  </si>
-  <si>
-    <t>LAKI-LAKI</t>
+    <t>15/04/1996</t>
+  </si>
+  <si>
+    <t>PEREMPUAN</t>
   </si>
   <si>
     <t>B</t>
@@ -148,10 +151,10 @@
     <t>WNI</t>
   </si>
   <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>31 August 1985</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>15 April 1996</t>
   </si>
   <si>
     <t>5/03/2031</t>
@@ -160,7 +163,13 @@
     <t>Without KYC Video</t>
   </si>
   <si>
-    <t>M Habil Ikhwan</t>
+    <t>NURHASANAH</t>
+  </si>
+  <si>
+    <t>3171014605720001</t>
+  </si>
+  <si>
+    <t>Apriani</t>
   </si>
 </sst>
 </file>
@@ -168,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -194,9 +203,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,62 +251,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,21 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -294,6 +273,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -302,6 +295,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -318,14 +326,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,13 +356,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,13 +464,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,151 +494,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,32 +547,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,24 +561,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +589,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -638,10 +612,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,151 +665,145 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1115,41 +1124,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0925925925926" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.0925925925926" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.9074074074074" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.8148148148148" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7314814814815" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.2685185185185" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5462962962963" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.9074074074074" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6388888888889" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.1851851851852" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.0925925925926" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="12.6388888888889" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.9074074074074" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7314814814815" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5462962962963" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.4537037037037" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.1851851851852" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.4259259259259" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.0925925925926" style="1" customWidth="1"/>
-    <col min="25" max="25" width="27.9074074074074" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.0925925925926" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.0925925925926" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9074074074074" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8148148148148" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7314814814815" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.2685185185185" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5462962962963" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.9074074074074" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6388888888889" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.1851851851852" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.0925925925926" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="12.6388888888889" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.9074074074074" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7314814814815" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5462962962963" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.4537037037037" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1851851851852" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.4259259259259" style="1" customWidth="1"/>
+    <col min="25" max="25" width="18.0925925925926" style="1" customWidth="1"/>
+    <col min="26" max="26" width="27.9074074074074" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,18 +1234,21 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" ht="28.8" spans="1:25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" ht="28.8" spans="1:26">
+      <c r="A2" s="2">
+        <v>10003387</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1263,14 +1275,14 @@
       <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>39</v>
@@ -1293,14 +1305,97 @@
       <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>48</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:26">
+      <c r="A3" s="2">
+        <v>10003387</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
+++ b/Data Files/Website/DataFiles_CRM/Data_CRM_Verification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9480"/>
+    <workbookView windowWidth="9432" windowHeight="8735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>SearchKYC</t>
   </si>
@@ -94,13 +94,13 @@
     <t>namebefore</t>
   </si>
   <si>
-    <t>RAISA</t>
-  </si>
-  <si>
-    <t>04/05/2021</t>
-  </si>
-  <si>
-    <t>30/06/2021</t>
+    <t>TESTING STAGING</t>
+  </si>
+  <si>
+    <t>04/02/2021</t>
+  </si>
+  <si>
+    <t>30/05/2021</t>
   </si>
   <si>
     <t>Terverifikasi</t>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>3171015504961001</t>
-  </si>
-  <si>
-    <t>TESTING STAGING</t>
   </si>
   <si>
     <t>SURABAYA</t>
@@ -177,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -203,6 +200,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -211,49 +237,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,6 +269,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -273,15 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,12 +302,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -311,37 +338,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,13 +353,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,19 +503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,145 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +544,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,47 +619,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +635,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,136 +662,133 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,7 +1124,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1240,7 +1237,7 @@
     </row>
     <row r="2" ht="28.8" spans="1:26">
       <c r="A2" s="2">
-        <v>10003387</v>
+        <v>10003572</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -1264,63 +1261,63 @@
         <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" ht="28.8" spans="1:26">
       <c r="A3" s="2">
-        <v>10003387</v>
+        <v>10003572</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
@@ -1341,61 +1338,61 @@
         <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
